--- a/2022-08-18 Prepare for UTSA/STARR.SGLT2.agg.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.SGLT2.agg.xlsx
@@ -3449,37 +3449,37 @@
         <v>23181.0</v>
       </c>
       <c r="N12" t="n">
-        <v>38035.0</v>
+        <v>93916.0</v>
       </c>
       <c r="O12" t="n">
-        <v>1958.0</v>
+        <v>2508.0</v>
       </c>
       <c r="P12" t="n">
-        <v>8.81700744E8</v>
+        <v>2.177064134E9</v>
       </c>
       <c r="Q12" t="n">
         <v>97.9</v>
       </c>
       <c r="R12" t="n">
-        <v>59.3</v>
+        <v>76.5</v>
       </c>
       <c r="S12" t="n">
-        <v>96.4</v>
+        <v>96.2</v>
       </c>
       <c r="T12" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="U12" t="e">
         <v>#N/A</v>
       </c>
       <c r="V12" t="n">
-        <v>95.9</v>
+        <v>95.6</v>
       </c>
       <c r="W12" t="n">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="X12" t="n">
-        <v>92.2</v>
+        <v>92.0</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -3488,22 +3488,22 @@
         <v>57.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>26.0</v>
+        <v>25.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>29875.0</v>
+        <v>30355.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>3459.0</v>
+        <v>4873.0</v>
       </c>
       <c r="AG12" t="s">
         <v>155</v>

--- a/2022-08-18 Prepare for UTSA/STARR.SGLT2.agg.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.SGLT2.agg.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="355">
   <si>
     <t>Sequencing_Date</t>
   </si>
@@ -74,42 +74,42 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in UMI</t>
+  </si>
+  <si>
+    <t>Reads Mapped to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Genome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intergenic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Intronic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Exonic Regions</t>
+  </si>
+  <si>
+    <t>Reads Mapped Confidently to Transcriptome</t>
+  </si>
+  <si>
+    <t>Reads Mapped Antisense to Gene</t>
+  </si>
+  <si>
+    <t>Fraction Reads in Cells</t>
+  </si>
+  <si>
+    <t>Total Genes Detected</t>
+  </si>
+  <si>
+    <t>Median UMI Counts per Cell</t>
+  </si>
+  <si>
     <t>Q30 Bases in Sample Index</t>
   </si>
   <si>
-    <t>Q30 Bases in UMI</t>
-  </si>
-  <si>
-    <t>Reads Mapped to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Genome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intergenic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Intronic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Exonic Regions</t>
-  </si>
-  <si>
-    <t>Reads Mapped Confidently to Transcriptome</t>
-  </si>
-  <si>
-    <t>Reads Mapped Antisense to Gene</t>
-  </si>
-  <si>
-    <t>Fraction Reads in Cells</t>
-  </si>
-  <si>
-    <t>Total Genes Detected</t>
-  </si>
-  <si>
-    <t>Median UMI Counts per Cell</t>
-  </si>
-  <si>
     <t>Agg</t>
   </si>
   <si>
@@ -227,9 +227,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>76615_V5</t>
   </si>
   <si>
@@ -281,18 +278,6 @@
     <t>STARR_026</t>
   </si>
   <si>
-    <t>STARR_028</t>
-  </si>
-  <si>
-    <t>STARR_031</t>
-  </si>
-  <si>
-    <t>STARR_032</t>
-  </si>
-  <si>
-    <t>STARR_039</t>
-  </si>
-  <si>
     <t>STARR_041</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
     <t>20220616_L1_Counts</t>
   </si>
   <si>
-    <t>20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
     <t>20220715_Counts</t>
   </si>
   <si>
@@ -428,15 +410,6 @@
     <t>STARR_026_combine_force8966</t>
   </si>
   <si>
-    <t>STARR_031_force2072</t>
-  </si>
-  <si>
-    <t>STARR_032_force3767</t>
-  </si>
-  <si>
-    <t>STARR_039_force2000</t>
-  </si>
-  <si>
     <t>STARR_041_combine3</t>
   </si>
   <si>
@@ -482,9 +455,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>Jia</t>
   </si>
   <si>
@@ -542,18 +512,6 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/molecule_info.h5</t>
-  </si>
-  <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/molecule_info.h5</t>
   </si>
   <si>
@@ -659,18 +617,6 @@
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_026_combine_force8966/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_028/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2072/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force3767/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/Seagate_SequencingFiles_1/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force2000/outs/metrics_summary.csv</t>
-  </si>
-  <si>
     <t>/media/jianie/SequencingFiles_3/20220616_L1_Counts/STARR_041_combine3/outs/metrics_summary.csv</t>
   </si>
   <si>
@@ -764,9 +710,6 @@
     <t>10X30671</t>
   </si>
   <si>
-    <t>10X30891</t>
-  </si>
-  <si>
     <t>10X31081</t>
   </si>
   <si>
@@ -794,9 +737,6 @@
     <t>P20220001</t>
   </si>
   <si>
-    <t>P1111192</t>
-  </si>
-  <si>
     <t>P20220010</t>
   </si>
   <si>
@@ -854,15 +794,6 @@
     <t>SI-GA-F7</t>
   </si>
   <si>
-    <t>SI-GA-C8</t>
-  </si>
-  <si>
-    <t>SI-GA-G8</t>
-  </si>
-  <si>
-    <t>SI-GA-H12</t>
-  </si>
-  <si>
     <t>SI-GA-C7</t>
   </si>
   <si>
@@ -947,15 +878,6 @@
     <t>CGTGCAGA, AACAAGAT, TCGCTTCG, GTATGCTC</t>
   </si>
   <si>
-    <t>GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
-  </si>
-  <si>
-    <t>TATGAGCT, CCGATAGC, ATACCCAA, GGCTGTTG</t>
-  </si>
-  <si>
-    <t>GACAGCAT,TTTGTACA,AGGCCGTG,CCATATGC</t>
-  </si>
-  <si>
     <t>GTCTCTCG,AATCTCTC,CGGAGGGA,TCAGAAAT</t>
   </si>
   <si>
@@ -1140,9 +1062,6 @@
   </si>
   <si>
     <t>20220616_L1_fastq_single</t>
-  </si>
-  <si>
-    <t>20191121_NovaSeq_fastq</t>
   </si>
   <si>
     <t>20220616_L1_fastq_dual</t>
@@ -1425,25 +1344,25 @@
         <v>#N/A</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H2" t="n">
         <v>35.0</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K2" t="n">
         <v>281.0</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M2" t="n">
         <v>10739.0</v>
@@ -1469,44 +1388,44 @@
       <c r="T2" t="n">
         <v>93.1</v>
       </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
+      <c r="U2" t="n">
+        <v>95.1</v>
       </c>
       <c r="V2" t="n">
-        <v>95.1</v>
+        <v>97.1</v>
       </c>
       <c r="W2" t="n">
-        <v>97.1</v>
+        <v>91.4</v>
       </c>
       <c r="X2" t="n">
-        <v>91.4</v>
+        <v>8.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.0</v>
+        <v>60.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>23.3</v>
+        <v>69.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.5</v>
+        <v>12.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.0</v>
+        <v>81.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>81.9</v>
+        <v>28312.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>28312.0</v>
-      </c>
-      <c r="AF2" t="n">
         <v>4261.0</v>
       </c>
+      <c r="AF2" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH2" t="e">
         <v>#N/A</v>
@@ -1515,43 +1434,43 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AM2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AR2" t="n">
         <v>2.0200909E7</v>
       </c>
       <c r="AS2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="AT2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AU2" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="AW2" t="n">
         <v>75000.0</v>
@@ -1566,16 +1485,16 @@
         <v>3.0E9</v>
       </c>
       <c r="BA2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="BB2" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="BC2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="BD2" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="BE2" t="n">
         <v>30.3</v>
@@ -1584,19 +1503,19 @@
         <v>415.0</v>
       </c>
       <c r="BG2" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="BH2" t="n">
         <v>50.0</v>
       </c>
       <c r="BI2" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ2" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK2" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL2" t="e">
         <v>#N/A</v>
@@ -1605,7 +1524,7 @@
         <v>#N/A</v>
       </c>
       <c r="BN2" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
@@ -1625,25 +1544,25 @@
         <v>#N/A</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H3" t="n">
         <v>60.0</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K3" t="n">
         <v>282.0</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M3" t="n">
         <v>6012.0</v>
@@ -1669,44 +1588,44 @@
       <c r="T3" t="n">
         <v>93.2</v>
       </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
+      <c r="U3" t="n">
+        <v>94.6</v>
       </c>
       <c r="V3" t="n">
-        <v>94.6</v>
+        <v>94.8</v>
       </c>
       <c r="W3" t="n">
-        <v>94.8</v>
+        <v>87.3</v>
       </c>
       <c r="X3" t="n">
-        <v>87.3</v>
+        <v>8.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.6</v>
+        <v>57.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>57.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.8</v>
+        <v>68.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>71.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>71.8</v>
+        <v>28143.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>28143.0</v>
-      </c>
-      <c r="AF3" t="n">
         <v>5188.0</v>
       </c>
+      <c r="AF3" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH3" t="e">
         <v>#N/A</v>
@@ -1715,43 +1634,43 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AR3" t="n">
         <v>2.0210707E7</v>
       </c>
       <c r="AS3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="AT3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AU3" t="n">
         <v>6367.0</v>
       </c>
       <c r="AV3" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AW3" t="n">
         <v>43457.0</v>
@@ -1766,16 +1685,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA3" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="BB3" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="BC3" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="BD3" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="BE3" t="n">
         <v>3.26</v>
@@ -1784,28 +1703,28 @@
         <v>494.0</v>
       </c>
       <c r="BG3" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH3" t="n">
         <v>25.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ3" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK3" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL3" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="BM3" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="BN3" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
@@ -1825,25 +1744,25 @@
         <v>#N/A</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H4" t="n">
         <v>58.0</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K4" t="n">
         <v>291.0</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M4" t="n">
         <v>9721.0</v>
@@ -1869,44 +1788,44 @@
       <c r="T4" t="n">
         <v>92.4</v>
       </c>
-      <c r="U4" t="e">
-        <v>#N/A</v>
+      <c r="U4" t="n">
+        <v>94.3</v>
       </c>
       <c r="V4" t="n">
-        <v>94.3</v>
+        <v>94.7</v>
       </c>
       <c r="W4" t="n">
-        <v>94.7</v>
+        <v>87.7</v>
       </c>
       <c r="X4" t="n">
-        <v>87.7</v>
+        <v>8.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.3</v>
+        <v>60.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.2</v>
+        <v>19.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.2</v>
+        <v>68.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.6</v>
+        <v>8.9</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.9</v>
+        <v>82.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>82.8</v>
+        <v>29313.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>29313.0</v>
-      </c>
-      <c r="AF4" t="n">
         <v>12182.0</v>
       </c>
+      <c r="AF4" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH4" t="e">
         <v>#N/A</v>
@@ -1915,34 +1834,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AM4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AR4" t="n">
         <v>2.0210408E7</v>
       </c>
       <c r="AS4" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AT4" t="e">
         <v>#N/A</v>
@@ -1951,7 +1870,7 @@
         <v>8410.0</v>
       </c>
       <c r="AV4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AW4" t="n">
         <v>28640.0</v>
@@ -1966,16 +1885,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA4" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="BB4" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="BC4" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BD4" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BE4" t="n">
         <v>3.26</v>
@@ -1984,28 +1903,28 @@
         <v>494.0</v>
       </c>
       <c r="BG4" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH4" t="n">
         <v>25.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ4" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK4" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL4" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="BM4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="BN4" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -2025,25 +1944,25 @@
         <v>#N/A</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H5" t="n">
         <v>66.0</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K5" t="n">
         <v>292.0</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M5" t="n">
         <v>9455.0</v>
@@ -2069,44 +1988,44 @@
       <c r="T5" t="n">
         <v>93.3</v>
       </c>
-      <c r="U5" t="e">
-        <v>#N/A</v>
+      <c r="U5" t="n">
+        <v>94.9</v>
       </c>
       <c r="V5" t="n">
-        <v>94.9</v>
+        <v>96.0</v>
       </c>
       <c r="W5" t="n">
-        <v>96.0</v>
+        <v>89.9</v>
       </c>
       <c r="X5" t="n">
-        <v>89.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.1</v>
+        <v>60.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>60.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>68.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.2</v>
+        <v>11.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.7</v>
+        <v>89.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>89.6</v>
+        <v>29020.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>29020.0</v>
-      </c>
-      <c r="AF5" t="n">
         <v>7138.0</v>
       </c>
+      <c r="AF5" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH5" t="e">
         <v>#N/A</v>
@@ -2115,43 +2034,43 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AM5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP5" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ5" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AR5" t="n">
         <v>2.0210623E7</v>
       </c>
       <c r="AS5" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AT5" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="AU5" t="n">
         <v>7769.0</v>
       </c>
       <c r="AV5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="AW5" t="n">
         <v>58060.0</v>
@@ -2166,16 +2085,16 @@
         <v>3.084510832E9</v>
       </c>
       <c r="BA5" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="BB5" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="BC5" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="BD5" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="BE5" t="n">
         <v>7.11</v>
@@ -2184,28 +2103,28 @@
         <v>483.0</v>
       </c>
       <c r="BG5" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="BH5" t="n">
         <v>25.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ5" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK5" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL5" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="BM5" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="BN5" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
@@ -2225,25 +2144,25 @@
         <v>#N/A</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H6" t="n">
         <v>125.0</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
         <v>293.0</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M6" t="n">
         <v>24013.0</v>
@@ -2269,44 +2188,44 @@
       <c r="T6" t="n">
         <v>94.1</v>
       </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
+      <c r="U6" t="n">
+        <v>95.6</v>
       </c>
       <c r="V6" t="n">
-        <v>95.6</v>
+        <v>94.7</v>
       </c>
       <c r="W6" t="n">
-        <v>94.7</v>
+        <v>89.1</v>
       </c>
       <c r="X6" t="n">
-        <v>89.1</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>53.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>53.4</v>
+        <v>27.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>27.2</v>
+        <v>58.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.2</v>
+        <v>20.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>20.9</v>
+        <v>87.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>87.5</v>
+        <v>30216.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>30216.0</v>
-      </c>
-      <c r="AF6" t="n">
         <v>5774.0</v>
       </c>
+      <c r="AF6" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH6" t="e">
         <v>#N/A</v>
@@ -2315,34 +2234,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AM6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AR6" t="n">
         <v>2.0211011E7</v>
       </c>
       <c r="AS6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AT6" t="e">
         <v>#N/A</v>
@@ -2351,7 +2270,7 @@
         <v>18171.0</v>
       </c>
       <c r="AV6" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AW6" t="n">
         <v>55879.0</v>
@@ -2366,16 +2285,16 @@
         <v>2.454088919E9</v>
       </c>
       <c r="BA6" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="BB6" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="BC6" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="BE6" t="n">
         <v>2.97</v>
@@ -2384,28 +2303,28 @@
         <v>450.0</v>
       </c>
       <c r="BG6" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH6" t="n">
         <v>30.0</v>
       </c>
       <c r="BI6" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ6" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK6" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL6" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM6" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="BN6" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
@@ -2425,25 +2344,25 @@
         <v>#N/A</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H7" t="n">
         <v>61.0</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K7" t="n">
         <v>118.0</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M7" t="n">
         <v>3970.0</v>
@@ -2469,44 +2388,44 @@
       <c r="T7" t="n">
         <v>91.4</v>
       </c>
-      <c r="U7" t="e">
-        <v>#N/A</v>
+      <c r="U7" t="n">
+        <v>94.7</v>
       </c>
       <c r="V7" t="n">
-        <v>94.7</v>
+        <v>92.5</v>
       </c>
       <c r="W7" t="n">
-        <v>92.5</v>
+        <v>84.8</v>
       </c>
       <c r="X7" t="n">
-        <v>84.8</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>56.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.9</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>66.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>74.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>74.0</v>
+        <v>27459.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>27459.0</v>
-      </c>
-      <c r="AF7" t="n">
         <v>3098.0</v>
       </c>
+      <c r="AF7" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH7" t="e">
         <v>#N/A</v>
@@ -2515,43 +2434,43 @@
         <v>2.0211117E7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AM7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AR7" t="n">
         <v>2.0210707E7</v>
       </c>
       <c r="AS7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AT7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="AU7" t="n">
         <v>3870.0</v>
       </c>
       <c r="AV7" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AW7" t="n">
         <v>8371.0</v>
@@ -2566,16 +2485,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="BB7" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="BC7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="BD7" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="BE7" t="n">
         <v>3.26</v>
@@ -2584,28 +2503,28 @@
         <v>494.0</v>
       </c>
       <c r="BG7" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH7" t="n">
         <v>25.0</v>
       </c>
       <c r="BI7" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ7" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK7" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL7" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="BM7" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="BN7" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8">
@@ -2625,25 +2544,25 @@
         <v>#N/A</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H8" t="n">
         <v>124.0</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K8" t="n">
         <v>294.0</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M8" t="n">
         <v>14711.0</v>
@@ -2669,44 +2588,44 @@
       <c r="T8" t="n">
         <v>93.6</v>
       </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
+      <c r="U8" t="n">
+        <v>95.8</v>
       </c>
       <c r="V8" t="n">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="W8" t="n">
-        <v>95.5</v>
+        <v>87.2</v>
       </c>
       <c r="X8" t="n">
-        <v>87.2</v>
+        <v>7.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.9</v>
+        <v>56.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>56.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.2</v>
+        <v>55.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>55.2</v>
+        <v>22.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>22.7</v>
+        <v>75.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>75.0</v>
+        <v>30186.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>30186.0</v>
-      </c>
-      <c r="AF8" t="n">
         <v>6401.0</v>
       </c>
+      <c r="AF8" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH8" t="e">
         <v>#N/A</v>
@@ -2715,34 +2634,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AM8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO8" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ8" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AR8" t="n">
         <v>2.0211111E7</v>
       </c>
       <c r="AS8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT8" t="e">
         <v>#N/A</v>
@@ -2751,7 +2670,7 @@
         <v>13672.0</v>
       </c>
       <c r="AV8" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AW8" t="n">
         <v>36016.0</v>
@@ -2766,16 +2685,16 @@
         <v>2.525739924E9</v>
       </c>
       <c r="BA8" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="BB8" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="BC8" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="BE8" t="n">
         <v>3.2</v>
@@ -2784,28 +2703,28 @@
         <v>450.0</v>
       </c>
       <c r="BG8" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH8" t="n">
         <v>30.0</v>
       </c>
       <c r="BI8" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ8" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK8" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL8" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM8" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="BN8" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
@@ -2825,25 +2744,25 @@
         <v>#N/A</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H9" t="n">
         <v>123.0</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
         <v>295.0</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>23571.0</v>
@@ -2869,44 +2788,44 @@
       <c r="T9" t="n">
         <v>93.1</v>
       </c>
-      <c r="U9" t="e">
-        <v>#N/A</v>
+      <c r="U9" t="n">
+        <v>95.6</v>
       </c>
       <c r="V9" t="n">
-        <v>95.6</v>
+        <v>95.8</v>
       </c>
       <c r="W9" t="n">
-        <v>95.8</v>
+        <v>89.5</v>
       </c>
       <c r="X9" t="n">
-        <v>89.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.5</v>
+        <v>54.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>54.8</v>
+        <v>27.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>27.1</v>
+        <v>63.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>63.7</v>
+        <v>16.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>16.6</v>
+        <v>85.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>85.8</v>
+        <v>30263.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>30263.0</v>
-      </c>
-      <c r="AF9" t="n">
         <v>4527.0</v>
       </c>
+      <c r="AF9" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH9" t="e">
         <v>#N/A</v>
@@ -2915,34 +2834,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AM9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP9" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ9" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AR9" t="n">
         <v>2.0211102E7</v>
       </c>
       <c r="AS9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT9" t="e">
         <v>#N/A</v>
@@ -2951,7 +2870,7 @@
         <v>16834.0</v>
       </c>
       <c r="AV9" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AW9" t="n">
         <v>53138.0</v>
@@ -2966,16 +2885,16 @@
         <v>2.525739924E9</v>
       </c>
       <c r="BA9" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="BB9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BC9" t="s">
         <v>301</v>
       </c>
-      <c r="BC9" t="s">
-        <v>327</v>
-      </c>
       <c r="BD9" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="BE9" t="n">
         <v>3.2</v>
@@ -2984,28 +2903,28 @@
         <v>450.0</v>
       </c>
       <c r="BG9" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH9" t="n">
         <v>30.0</v>
       </c>
       <c r="BI9" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ9" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK9" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL9" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM9" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="BN9" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
@@ -3025,25 +2944,25 @@
         <v>#N/A</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H10" t="n">
         <v>64.0</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K10" t="n">
         <v>287.0</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>14435.0</v>
@@ -3069,44 +2988,44 @@
       <c r="T10" t="n">
         <v>92.9</v>
       </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
+      <c r="U10" t="n">
+        <v>94.3</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3</v>
+        <v>95.8</v>
       </c>
       <c r="W10" t="n">
-        <v>95.8</v>
+        <v>90.5</v>
       </c>
       <c r="X10" t="n">
-        <v>90.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.4</v>
+        <v>60.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>60.8</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.3</v>
+        <v>53.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>53.7</v>
+        <v>27.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>27.9</v>
+        <v>82.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>82.4</v>
+        <v>30088.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>30088.0</v>
-      </c>
-      <c r="AF10" t="n">
         <v>6185.0</v>
       </c>
+      <c r="AF10" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG10" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH10" t="e">
         <v>#N/A</v>
@@ -3115,43 +3034,43 @@
         <v>2.0220822E7</v>
       </c>
       <c r="AJ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL10" t="s">
         <v>157</v>
       </c>
-      <c r="AK10" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>167</v>
-      </c>
       <c r="AM10" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO10" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP10" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ10" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AR10" t="n">
         <v>2.0210723E7</v>
       </c>
       <c r="AS10" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="AT10" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="AU10" t="n">
         <v>14332.0</v>
       </c>
       <c r="AV10" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AW10" t="n">
         <v>65351.0</v>
@@ -3166,16 +3085,16 @@
         <v>3.07402435E9</v>
       </c>
       <c r="BA10" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="BB10" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="BC10" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="BD10" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="BE10" t="n">
         <v>3.26</v>
@@ -3184,28 +3103,28 @@
         <v>494.0</v>
       </c>
       <c r="BG10" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH10" t="n">
         <v>25.0</v>
       </c>
       <c r="BI10" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ10" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK10" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL10" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="BM10" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="BN10" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11">
@@ -3225,25 +3144,25 @@
         <v>#N/A</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H11" t="n">
         <v>128.0</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K11" t="n">
         <v>296.0</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>13551.0</v>
@@ -3269,44 +3188,44 @@
       <c r="T11" t="n">
         <v>93.6</v>
       </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
+      <c r="U11" t="n">
+        <v>95.6</v>
       </c>
       <c r="V11" t="n">
-        <v>95.6</v>
+        <v>96.2</v>
       </c>
       <c r="W11" t="n">
-        <v>96.2</v>
+        <v>90.8</v>
       </c>
       <c r="X11" t="n">
-        <v>90.8</v>
+        <v>9.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.0</v>
+        <v>60.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>60.9</v>
+        <v>20.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.9</v>
+        <v>55.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>55.6</v>
+        <v>24.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>24.8</v>
+        <v>73.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>73.4</v>
+        <v>30143.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>30143.0</v>
-      </c>
-      <c r="AF11" t="n">
         <v>6361.0</v>
       </c>
+      <c r="AF11" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG11" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH11" t="e">
         <v>#N/A</v>
@@ -3315,34 +3234,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL11" t="s">
         <v>158</v>
       </c>
-      <c r="AL11" t="s">
-        <v>168</v>
-      </c>
       <c r="AM11" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO11" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ11" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AR11" t="n">
         <v>2.0211209E7</v>
       </c>
       <c r="AS11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT11" t="e">
         <v>#N/A</v>
@@ -3351,7 +3270,7 @@
         <v>13505.0</v>
       </c>
       <c r="AV11" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AW11" t="n">
         <v>42605.0</v>
@@ -3366,16 +3285,16 @@
         <v>2.454088919E9</v>
       </c>
       <c r="BA11" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="BB11" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="BC11" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="BE11" t="n">
         <v>2.97</v>
@@ -3384,28 +3303,28 @@
         <v>450.0</v>
       </c>
       <c r="BG11" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH11" t="n">
         <v>30.0</v>
       </c>
       <c r="BI11" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ11" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK11" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL11" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM11" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="BN11" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
@@ -3425,25 +3344,25 @@
         <v>#N/A</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H12" t="n">
         <v>122.0</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
         <v>288.0</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>23181.0</v>
@@ -3469,44 +3388,44 @@
       <c r="T12" t="n">
         <v>94.5</v>
       </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
+      <c r="U12" t="n">
+        <v>95.6</v>
       </c>
       <c r="V12" t="n">
-        <v>95.6</v>
+        <v>96.8</v>
       </c>
       <c r="W12" t="n">
-        <v>96.8</v>
+        <v>92.0</v>
       </c>
       <c r="X12" t="n">
-        <v>92.0</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>57.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>57.6</v>
+        <v>25.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.9</v>
+        <v>60.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>60.3</v>
+        <v>21.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>21.6</v>
+        <v>82.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>82.1</v>
+        <v>30355.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>30355.0</v>
-      </c>
-      <c r="AF12" t="n">
         <v>4873.0</v>
       </c>
+      <c r="AF12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH12" t="e">
         <v>#N/A</v>
@@ -3515,34 +3434,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ12" t="s">
         <v>194</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>208</v>
       </c>
       <c r="AR12" t="n">
         <v>2.0211213E7</v>
       </c>
       <c r="AS12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="e">
         <v>#N/A</v>
@@ -3551,7 +3470,7 @@
         <v>19146.0</v>
       </c>
       <c r="AV12" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AW12" t="n">
         <v>59480.0</v>
@@ -3566,16 +3485,16 @@
         <v>2.525739924E9</v>
       </c>
       <c r="BA12" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="BB12" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="BC12" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD12" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="BE12" t="n">
         <v>3.2</v>
@@ -3584,28 +3503,28 @@
         <v>450.0</v>
       </c>
       <c r="BG12" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH12" t="n">
         <v>30.0</v>
       </c>
       <c r="BI12" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ12" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK12" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL12" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM12" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="BN12" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -3625,25 +3544,25 @@
         <v>#N/A</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H13" t="n">
         <v>126.0</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K13" t="n">
         <v>297.0</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
         <v>17531.0</v>
@@ -3669,44 +3588,44 @@
       <c r="T13" t="n">
         <v>94.3</v>
       </c>
-      <c r="U13" t="e">
-        <v>#N/A</v>
+      <c r="U13" t="n">
+        <v>95.8</v>
       </c>
       <c r="V13" t="n">
         <v>95.8</v>
       </c>
       <c r="W13" t="n">
-        <v>95.8</v>
+        <v>89.8</v>
       </c>
       <c r="X13" t="n">
-        <v>89.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.4</v>
+        <v>58.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>58.9</v>
+        <v>22.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.6</v>
+        <v>57.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>57.6</v>
+        <v>22.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>22.3</v>
+        <v>83.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.0</v>
+        <v>29995.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>29995.0</v>
-      </c>
-      <c r="AF13" t="n">
         <v>5013.0</v>
       </c>
+      <c r="AF13" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH13" t="e">
         <v>#N/A</v>
@@ -3715,34 +3634,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>195</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>209</v>
       </c>
       <c r="AR13" t="n">
         <v>2.022012E7</v>
       </c>
       <c r="AS13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT13" t="e">
         <v>#N/A</v>
@@ -3751,7 +3670,7 @@
         <v>14606.0</v>
       </c>
       <c r="AV13" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AW13" t="n">
         <v>38939.0</v>
@@ -3766,16 +3685,16 @@
         <v>2.454088919E9</v>
       </c>
       <c r="BA13" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="BB13" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="BC13" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD13" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="BE13" t="n">
         <v>2.97</v>
@@ -3784,28 +3703,28 @@
         <v>450.0</v>
       </c>
       <c r="BG13" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH13" t="n">
         <v>30.0</v>
       </c>
       <c r="BI13" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ13" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK13" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL13" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM13" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="BN13" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
@@ -3825,25 +3744,25 @@
         <v>#N/A</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H14" t="n">
         <v>127.0</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K14" t="n">
         <v>298.0</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>14743.0</v>
@@ -3869,44 +3788,44 @@
       <c r="T14" t="n">
         <v>94.2</v>
       </c>
-      <c r="U14" t="e">
-        <v>#N/A</v>
+      <c r="U14" t="n">
+        <v>96.0</v>
       </c>
       <c r="V14" t="n">
-        <v>96.0</v>
+        <v>96.6</v>
       </c>
       <c r="W14" t="n">
-        <v>96.6</v>
+        <v>90.4</v>
       </c>
       <c r="X14" t="n">
-        <v>90.4</v>
+        <v>8.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.0</v>
+        <v>59.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>59.0</v>
+        <v>23.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>64.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>64.0</v>
+        <v>16.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.7</v>
+        <v>85.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>85.3</v>
+        <v>29313.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>29313.0</v>
-      </c>
-      <c r="AF14" t="n">
         <v>4230.0</v>
       </c>
+      <c r="AF14" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH14" t="e">
         <v>#N/A</v>
@@ -3915,34 +3834,34 @@
         <v>2.022083E7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>196</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>210</v>
       </c>
       <c r="AR14" t="n">
         <v>2.0220211E7</v>
       </c>
       <c r="AS14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT14" t="e">
         <v>#N/A</v>
@@ -3951,7 +3870,7 @@
         <v>11091.0</v>
       </c>
       <c r="AV14" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AW14" t="n">
         <v>26561.0</v>
@@ -3966,16 +3885,16 @@
         <v>2.454088919E9</v>
       </c>
       <c r="BA14" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="BB14" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="BC14" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD14" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="BE14" t="n">
         <v>2.97</v>
@@ -3984,28 +3903,28 @@
         <v>450.0</v>
       </c>
       <c r="BG14" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH14" t="n">
         <v>30.0</v>
       </c>
       <c r="BI14" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ14" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK14" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL14" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM14" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="BN14" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15">
@@ -4025,25 +3944,25 @@
         <v>#N/A</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H15" t="n">
         <v>17.0</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K15" t="n">
         <v>230.0</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
         <v>12660.0</v>
@@ -4069,44 +3988,44 @@
       <c r="T15" t="n">
         <v>94.5</v>
       </c>
-      <c r="U15" t="e">
-        <v>#N/A</v>
+      <c r="U15" t="n">
+        <v>96.3</v>
       </c>
       <c r="V15" t="n">
-        <v>96.3</v>
+        <v>94.5</v>
       </c>
       <c r="W15" t="n">
-        <v>94.5</v>
+        <v>83.6</v>
       </c>
       <c r="X15" t="n">
-        <v>83.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>57.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>57.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>17.7</v>
+        <v>68.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>68.1</v>
+        <v>5.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.0</v>
+        <v>74.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>74.2</v>
+        <v>28572.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>28572.0</v>
-      </c>
-      <c r="AF15" t="n">
         <v>2974.0</v>
       </c>
+      <c r="AF15" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH15" t="e">
         <v>#N/A</v>
@@ -4115,37 +4034,37 @@
         <v>2.0220802E7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AM15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>197</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>211</v>
       </c>
       <c r="AR15" t="n">
         <v>2.0190603E7</v>
       </c>
       <c r="AS15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AT15" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="AU15" t="n">
         <v>10000.0</v>
@@ -4166,16 +4085,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA15" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="BB15" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="BC15" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BD15" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BE15" t="e">
         <v>#N/A</v>
@@ -4190,22 +4109,22 @@
         <v>20.0</v>
       </c>
       <c r="BI15" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ15" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="BK15" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="BL15" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM15" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="BN15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -4225,25 +4144,25 @@
         <v>#N/A</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H16" t="n">
         <v>18.0</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K16" t="n">
         <v>267.0</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
         <v>7398.0</v>
@@ -4269,44 +4188,44 @@
       <c r="T16" t="n">
         <v>94.7</v>
       </c>
-      <c r="U16" t="e">
-        <v>#N/A</v>
+      <c r="U16" t="n">
+        <v>96.6</v>
       </c>
       <c r="V16" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="W16" t="n">
-        <v>96.7</v>
+        <v>91.4</v>
       </c>
       <c r="X16" t="n">
-        <v>91.4</v>
+        <v>8.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.1</v>
+        <v>62.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>62.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.6</v>
+        <v>76.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>76.1</v>
+        <v>4.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.9</v>
+        <v>85.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>85.7</v>
+        <v>27161.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>27161.0</v>
-      </c>
-      <c r="AF16" t="n">
         <v>6703.0</v>
       </c>
+      <c r="AF16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH16" t="e">
         <v>#N/A</v>
@@ -4315,37 +4234,37 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK16" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AM16" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO16" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP16" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ16" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AR16" t="n">
         <v>2.0190624E7</v>
       </c>
       <c r="AS16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT16" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AU16" t="n">
         <v>10000.0</v>
@@ -4366,16 +4285,16 @@
         <v>2.65E9</v>
       </c>
       <c r="BA16" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="BB16" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="BC16" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BD16" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BE16" t="e">
         <v>#N/A</v>
@@ -4390,22 +4309,22 @@
         <v>45.0</v>
       </c>
       <c r="BI16" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ16" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="BK16" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="BL16" t="e">
         <v>#N/A</v>
       </c>
       <c r="BM16" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="BN16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -4425,25 +4344,25 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H17" t="n">
         <v>48.0</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K17" t="n">
         <v>266.0</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M17" t="n">
         <v>9907.0</v>
@@ -4469,44 +4388,44 @@
       <c r="T17" t="n">
         <v>93.6</v>
       </c>
-      <c r="U17" t="e">
-        <v>#N/A</v>
+      <c r="U17" t="n">
+        <v>94.6</v>
       </c>
       <c r="V17" t="n">
-        <v>94.6</v>
+        <v>96.6</v>
       </c>
       <c r="W17" t="n">
-        <v>96.6</v>
+        <v>88.7</v>
       </c>
       <c r="X17" t="n">
-        <v>88.7</v>
+        <v>9.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.8</v>
+        <v>62.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>62.3</v>
+        <v>16.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.6</v>
+        <v>71.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>71.7</v>
+        <v>5.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.1</v>
+        <v>69.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>69.2</v>
+        <v>28155.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>28155.0</v>
-      </c>
-      <c r="AF17" t="n">
         <v>5863.0</v>
       </c>
+      <c r="AF17" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH17" t="e">
         <v>#N/A</v>
@@ -4515,34 +4434,34 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AM17" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO17" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP17" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ17" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AR17" t="n">
         <v>2.0190829E7</v>
       </c>
       <c r="AS17" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="AT17" t="e">
         <v>#N/A</v>
@@ -4551,7 +4470,7 @@
         <v>8714.0</v>
       </c>
       <c r="AV17" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="AW17" t="n">
         <v>50000.0</v>
@@ -4566,16 +4485,16 @@
         <v>2.99217E9</v>
       </c>
       <c r="BA17" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="BB17" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="BC17" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BD17" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BE17" t="n">
         <v>3.0</v>
@@ -4584,28 +4503,28 @@
         <v>448.0</v>
       </c>
       <c r="BG17" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH17" t="n">
         <v>50.0</v>
       </c>
       <c r="BI17" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ17" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK17" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL17" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="BM17" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="BN17" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18">
@@ -4625,25 +4544,25 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H18" t="n">
         <v>70.0</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K18" t="n">
         <v>247.0</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M18" t="n">
         <v>8966.0</v>
@@ -4669,44 +4588,44 @@
       <c r="T18" t="n">
         <v>93.7</v>
       </c>
-      <c r="U18" t="e">
-        <v>#N/A</v>
+      <c r="U18" t="n">
+        <v>95.3</v>
       </c>
       <c r="V18" t="n">
-        <v>95.3</v>
+        <v>96.7</v>
       </c>
       <c r="W18" t="n">
-        <v>96.7</v>
+        <v>90.4</v>
       </c>
       <c r="X18" t="n">
-        <v>90.4</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>63.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>63.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.3</v>
+        <v>75.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>75.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>4.2</v>
+        <v>64.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>64.4</v>
+        <v>26965.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>26965.0</v>
-      </c>
-      <c r="AF18" t="n">
         <v>3932.0</v>
       </c>
+      <c r="AF18" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AG18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH18" t="e">
         <v>#N/A</v>
@@ -4715,34 +4634,34 @@
         <v>2.022081E7</v>
       </c>
       <c r="AJ18" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK18" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL18" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO18" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP18" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ18" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="AR18" t="n">
         <v>2.0190909E7</v>
       </c>
       <c r="AS18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT18" t="e">
         <v>#N/A</v>
@@ -4751,7 +4670,7 @@
         <v>6512.0</v>
       </c>
       <c r="AV18" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="AW18" t="n">
         <v>25000.0</v>
@@ -4766,257 +4685,257 @@
         <v>2.9548E9</v>
       </c>
       <c r="BA18" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="BB18" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="BC18" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG18" t="s">
         <v>326</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>352</v>
       </c>
       <c r="BH18" t="n">
         <v>20.0</v>
       </c>
       <c r="BI18" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ18" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK18" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL18" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="BM18" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="BN18" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>2.529556633E9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.2</v>
+        <v>2.901329438E9</v>
+      </c>
+      <c r="D19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H19" t="n">
-        <v>28.0</v>
+        <v>71.0</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K19" t="n">
-        <v>44.0</v>
+        <v>156.0</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="M19" t="n">
-        <v>2288.0</v>
+        <v>15847.0</v>
       </c>
       <c r="N19" t="n">
-        <v>245361.0</v>
+        <v>97871.0</v>
       </c>
       <c r="O19" t="n">
-        <v>1876.0</v>
+        <v>1959.0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.61385615E8</v>
+        <v>1.55096837E9</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.5</v>
+        <v>81.8</v>
       </c>
       <c r="S19" t="n">
         <v>95.6</v>
       </c>
       <c r="T19" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="U19" t="e">
-        <v>#N/A</v>
+        <v>93.9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>95.1</v>
       </c>
       <c r="V19" t="n">
-        <v>95.2</v>
+        <v>94.4</v>
       </c>
       <c r="W19" t="n">
-        <v>94.7</v>
+        <v>82.2</v>
       </c>
       <c r="X19" t="n">
-        <v>86.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.0</v>
+        <v>53.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>50.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>26.2</v>
+        <v>68.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>71.4</v>
+        <v>4.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.8</v>
+        <v>79.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>73.5</v>
+        <v>29138.0</v>
       </c>
       <c r="AE19" t="n">
-        <v>25014.0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>3777.0</v>
+        <v>3038.0</v>
+      </c>
+      <c r="AF19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI19" t="e">
-        <v>#N/A</v>
+        <v>146</v>
+      </c>
+      <c r="AH19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.0220624E7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK19" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AM19" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP19" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ19" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.0190909E7</v>
+        <v>2.0190923E7</v>
       </c>
       <c r="AS19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT19" t="e">
-        <v>#N/A</v>
+        <v>88</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>232</v>
       </c>
       <c r="AU19" t="n">
-        <v>10000.0</v>
+        <v>12710.0</v>
       </c>
       <c r="AV19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.4485E8</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2.9548E9</v>
+      </c>
+      <c r="BA19" t="s">
         <v>260</v>
       </c>
-      <c r="AW19" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5.0E8</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0.1999992000032</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>2.50001E9</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>266</v>
-      </c>
       <c r="BB19" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="BC19" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG19" t="s">
         <v>326</v>
       </c>
-      <c r="BD19" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>510.0</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>350</v>
-      </c>
       <c r="BH19" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI19" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ19" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="BK19" t="s">
-        <v>357</v>
-      </c>
-      <c r="BL19" t="e">
-        <v>#N/A</v>
+        <v>330</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>332</v>
       </c>
       <c r="BM19" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BN19" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="n">
-        <v>2.529556633E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -5025,88 +4944,88 @@
         <v>#N/A</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H20" t="n">
-        <v>27.0</v>
+        <v>72.0</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K20" t="n">
-        <v>267.0</v>
+        <v>269.0</v>
       </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M20" t="n">
-        <v>2072.0</v>
+        <v>9146.0</v>
       </c>
       <c r="N20" t="n">
-        <v>208533.0</v>
+        <v>95965.0</v>
       </c>
       <c r="O20" t="n">
-        <v>2300.0</v>
+        <v>2390.0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.32080145E8</v>
+        <v>8.77693939E8</v>
       </c>
       <c r="Q20" t="n">
         <v>97.3</v>
       </c>
       <c r="R20" t="n">
-        <v>77.0</v>
+        <v>83.3</v>
       </c>
       <c r="S20" t="n">
-        <v>95.4</v>
+        <v>95.6</v>
       </c>
       <c r="T20" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="U20" t="e">
-        <v>#N/A</v>
+        <v>93.9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>95.1</v>
       </c>
       <c r="V20" t="n">
-        <v>95.0</v>
+        <v>92.3</v>
       </c>
       <c r="W20" t="n">
-        <v>94.6</v>
+        <v>80.9</v>
       </c>
       <c r="X20" t="n">
-        <v>77.4</v>
+        <v>7.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.4</v>
+        <v>55.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>50.8</v>
+        <v>17.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.3</v>
+        <v>67.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>64.5</v>
+        <v>3.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.7</v>
+        <v>79.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>38.1</v>
+        <v>27946.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>24817.0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>4672.0</v>
+        <v>5029.0</v>
+      </c>
+      <c r="AF20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH20" t="e">
         <v>#N/A</v>
@@ -5115,108 +5034,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AM20" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO20" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP20" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ20" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="AR20" t="n">
-        <v>2.0190905E7</v>
+        <v>2.0201119E7</v>
       </c>
       <c r="AS20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT20" t="e">
-        <v>#N/A</v>
+        <v>89</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>233</v>
       </c>
       <c r="AU20" t="n">
-        <v>10000.0</v>
+        <v>9886.0</v>
       </c>
       <c r="AV20" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AW20" t="n">
-        <v>50000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>5.0E8</v>
+        <v>2.4715E8</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.1999992000032</v>
+        <v>0.084</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2.50001E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA20" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="BB20" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="BC20" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BF20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BG20" t="s">
         <v>326</v>
       </c>
-      <c r="BD20" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>350</v>
-      </c>
       <c r="BH20" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI20" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ20" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="BK20" t="s">
-        <v>357</v>
-      </c>
-      <c r="BL20" t="e">
-        <v>#N/A</v>
+        <v>330</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>332</v>
       </c>
       <c r="BM20" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BN20" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.0191121E7</v>
+        <v>2.0211105E7</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" t="n">
-        <v>2.529556633E9</v>
+        <v>2.590729371E9</v>
       </c>
       <c r="D21" t="e">
         <v>#N/A</v>
@@ -5225,198 +5144,198 @@
         <v>#N/A</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H21" t="n">
-        <v>30.0</v>
+        <v>59.0</v>
       </c>
       <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
         <v>109</v>
       </c>
-      <c r="J21" t="s">
-        <v>119</v>
-      </c>
       <c r="K21" t="n">
-        <v>268.0</v>
+        <v>289.0</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M21" t="n">
-        <v>3767.0</v>
+        <v>8535.0</v>
       </c>
       <c r="N21" t="n">
-        <v>117996.0</v>
+        <v>90572.0</v>
       </c>
       <c r="O21" t="n">
-        <v>1515.0</v>
+        <v>3594.0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.44489382E8</v>
+        <v>7.7302905E8</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.9</v>
+        <v>97.5</v>
       </c>
       <c r="R21" t="n">
-        <v>90.2</v>
+        <v>67.7</v>
       </c>
       <c r="S21" t="n">
-        <v>95.4</v>
+        <v>94.6</v>
       </c>
       <c r="T21" t="n">
-        <v>92.9</v>
-      </c>
-      <c r="U21" t="e">
-        <v>#N/A</v>
+        <v>93.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>94.1</v>
       </c>
       <c r="V21" t="n">
-        <v>95.0</v>
+        <v>96.4</v>
       </c>
       <c r="W21" t="n">
-        <v>90.8</v>
+        <v>89.7</v>
       </c>
       <c r="X21" t="n">
-        <v>80.3</v>
+        <v>7.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.7</v>
+        <v>61.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>56.2</v>
+        <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>16.4</v>
+        <v>73.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>67.0</v>
+        <v>6.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.5</v>
+        <v>79.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>64.4</v>
+        <v>28473.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>24483.0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>2687.0</v>
+        <v>10436.0</v>
+      </c>
+      <c r="AF21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG21" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH21" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK21" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL21" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AM21" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO21" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP21" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ21" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.0191018E7</v>
+        <v>2.0210409E7</v>
       </c>
       <c r="AS21" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="AT21" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU21" t="n">
-        <v>10000.0</v>
+        <v>8464.0</v>
       </c>
       <c r="AV21" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="AW21" t="n">
-        <v>50001.0</v>
+        <v>35280.0</v>
       </c>
       <c r="AX21" t="n">
-        <v>5.0001E8</v>
+        <v>2.9860992E8</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.2000031999872</v>
+        <v>0.0971397380115092</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2.50001E9</v>
+        <v>3.07402435E9</v>
       </c>
       <c r="BA21" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="BB21" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="BC21" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="BD21" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE21" t="e">
-        <v>#N/A</v>
+        <v>300</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>3.26</v>
       </c>
       <c r="BF21" t="n">
-        <v>406.0</v>
+        <v>494.0</v>
       </c>
       <c r="BG21" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH21" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="BI21" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ21" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="BK21" t="s">
-        <v>357</v>
-      </c>
-      <c r="BL21" t="e">
-        <v>#N/A</v>
+        <v>330</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>332</v>
       </c>
       <c r="BM21" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="BN21" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.0210126E7</v>
+        <v>2.0220616E7</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" t="n">
-        <v>3.028254122E9</v>
+        <v>2.901329438E9</v>
       </c>
       <c r="D22" t="e">
         <v>#N/A</v>
@@ -5425,198 +5344,198 @@
         <v>#N/A</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H22" t="n">
-        <v>34.0</v>
+        <v>73.0</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
         <v>113</v>
       </c>
       <c r="K22" t="n">
-        <v>92.0</v>
+        <v>271.0</v>
       </c>
       <c r="L22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M22" t="n">
-        <v>2000.0</v>
+        <v>5793.0</v>
       </c>
       <c r="N22" t="n">
-        <v>359483.0</v>
+        <v>121886.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1551.0</v>
+        <v>2572.0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.18965036E8</v>
+        <v>7.06088154E8</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.9</v>
+        <v>97.6</v>
       </c>
       <c r="R22" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="T22" t="n">
         <v>93.1</v>
       </c>
-      <c r="S22" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="T22" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="U22" t="e">
-        <v>#N/A</v>
+      <c r="U22" t="n">
+        <v>95.3</v>
       </c>
       <c r="V22" t="n">
-        <v>94.9</v>
+        <v>92.9</v>
       </c>
       <c r="W22" t="n">
-        <v>89.3</v>
+        <v>84.7</v>
       </c>
       <c r="X22" t="n">
-        <v>78.7</v>
+        <v>8.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.2</v>
+        <v>49.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>48.9</v>
+        <v>27.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>22.6</v>
+        <v>57.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>64.7</v>
+        <v>17.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.8</v>
+        <v>73.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>52.9</v>
+        <v>28625.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>24674.0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>2616.0</v>
+        <v>5646.0</v>
+      </c>
+      <c r="AF22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH22" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.0211103E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ22" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK22" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AM22" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO22" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP22" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ22" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AR22" t="n">
-        <v>2.0200211E7</v>
+        <v>2.0211028E7</v>
       </c>
       <c r="AS22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>250</v>
+        <v>223</v>
+      </c>
+      <c r="AT22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU22" t="n">
         <v>10000.0</v>
       </c>
       <c r="AV22" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="AW22" t="n">
-        <v>75000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>7.5E8</v>
+        <v>7.0E8</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.25</v>
+        <v>0.236902666847164</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3.0E9</v>
+        <v>2.9548E9</v>
       </c>
       <c r="BA22" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="BB22" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD22" t="s">
         <v>313</v>
       </c>
-      <c r="BC22" t="s">
+      <c r="BE22" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="BG22" t="s">
         <v>326</v>
       </c>
-      <c r="BD22" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>328.0</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>349</v>
-      </c>
       <c r="BH22" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="BI22" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ22" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK22" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BM22" t="e">
-        <v>#N/A</v>
+        <v>330</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>338</v>
       </c>
       <c r="BN22" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="n">
-        <v>2.901329438E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D23" t="e">
         <v>#N/A</v>
@@ -5625,198 +5544,198 @@
         <v>#N/A</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H23" t="n">
-        <v>71.0</v>
+        <v>115.0</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K23" t="n">
-        <v>156.0</v>
+        <v>272.0</v>
       </c>
       <c r="L23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M23" t="n">
-        <v>15847.0</v>
+        <v>9464.0</v>
       </c>
       <c r="N23" t="n">
-        <v>97871.0</v>
+        <v>148705.0</v>
       </c>
       <c r="O23" t="n">
-        <v>1959.0</v>
+        <v>3131.0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55096837E9</v>
+        <v>1.407347538E9</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.0</v>
+        <v>96.1</v>
       </c>
       <c r="R23" t="n">
-        <v>81.8</v>
+        <v>79.1</v>
       </c>
       <c r="S23" t="n">
-        <v>95.6</v>
+        <v>96.1</v>
       </c>
       <c r="T23" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="U23" t="e">
-        <v>#N/A</v>
+        <v>93.3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>95.4</v>
       </c>
       <c r="V23" t="n">
-        <v>95.1</v>
+        <v>95.8</v>
       </c>
       <c r="W23" t="n">
-        <v>94.4</v>
+        <v>90.3</v>
       </c>
       <c r="X23" t="n">
-        <v>82.2</v>
+        <v>8.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.2</v>
+        <v>57.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>53.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.1</v>
+        <v>48.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>68.1</v>
+        <v>31.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.9</v>
+        <v>70.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>79.2</v>
+        <v>29575.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>29138.0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>3038.0</v>
+        <v>7757.0</v>
+      </c>
+      <c r="AF23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG23" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH23" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.0220624E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ23" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM23" t="s">
         <v>180</v>
       </c>
-      <c r="AM23" t="s">
-        <v>194</v>
-      </c>
       <c r="AN23" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO23" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP23" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ23" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.0190923E7</v>
+        <v>2.0211111E7</v>
       </c>
       <c r="AS23" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>251</v>
+        <v>92</v>
+      </c>
+      <c r="AT23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU23" t="n">
-        <v>12710.0</v>
+        <v>13939.0</v>
       </c>
       <c r="AV23" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AW23" t="n">
-        <v>35000.0</v>
+        <v>47723.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.4485E8</v>
+        <v>6.65210897E8</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.151</v>
+        <v>0.251783420752951</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2.9548E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA23" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="BB23" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="BC23" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="BD23" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF23" t="e">
-        <v>#N/A</v>
+        <v>304</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>470.0</v>
       </c>
       <c r="BG23" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="BH23" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BI23" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ23" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK23" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL23" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="BM23" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="BN23" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
-        <v>2.901329438E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D24" t="e">
         <v>#N/A</v>
@@ -5825,88 +5744,88 @@
         <v>#N/A</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H24" t="n">
-        <v>72.0</v>
+        <v>113.0</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K24" t="n">
-        <v>269.0</v>
+        <v>273.0</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M24" t="n">
-        <v>9146.0</v>
+        <v>7508.0</v>
       </c>
       <c r="N24" t="n">
-        <v>95965.0</v>
+        <v>114259.0</v>
       </c>
       <c r="O24" t="n">
-        <v>2390.0</v>
+        <v>3071.0</v>
       </c>
       <c r="P24" t="n">
-        <v>8.77693939E8</v>
+        <v>8.57858458E8</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.3</v>
+        <v>98.2</v>
       </c>
       <c r="R24" t="n">
-        <v>83.3</v>
+        <v>68.3</v>
       </c>
       <c r="S24" t="n">
-        <v>95.6</v>
+        <v>96.0</v>
       </c>
       <c r="T24" t="n">
-        <v>93.9</v>
-      </c>
-      <c r="U24" t="e">
-        <v>#N/A</v>
+        <v>94.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>95.5</v>
       </c>
       <c r="V24" t="n">
-        <v>95.1</v>
+        <v>95.8</v>
       </c>
       <c r="W24" t="n">
-        <v>92.3</v>
+        <v>88.9</v>
       </c>
       <c r="X24" t="n">
-        <v>80.9</v>
+        <v>9.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.9</v>
+        <v>59.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>55.7</v>
+        <v>20.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.4</v>
+        <v>63.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>67.4</v>
+        <v>14.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>3.6</v>
+        <v>70.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>79.5</v>
+        <v>28945.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>27946.0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>5029.0</v>
+        <v>7878.0</v>
+      </c>
+      <c r="AF24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG24" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH24" t="e">
         <v>#N/A</v>
@@ -5915,108 +5834,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK24" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN24" t="s">
         <v>181</v>
       </c>
-      <c r="AM24" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>195</v>
-      </c>
       <c r="AO24" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP24" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ24" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.0201119E7</v>
+        <v>2.021121E7</v>
       </c>
       <c r="AS24" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>252</v>
+        <v>93</v>
+      </c>
+      <c r="AT24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AU24" t="n">
-        <v>9886.0</v>
+        <v>9511.0</v>
       </c>
       <c r="AV24" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AW24" t="n">
-        <v>25000.0</v>
+        <v>39816.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.4715E8</v>
+        <v>3.78689976E8</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.084</v>
+        <v>0.14333477998051</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2.9548E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA24" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="BB24" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="BC24" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="s">
-        <v>326</v>
-      </c>
-      <c r="BE24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BF24" t="e">
-        <v>#N/A</v>
+        <v>314</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>470.0</v>
       </c>
       <c r="BG24" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="BH24" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BI24" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ24" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK24" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL24" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="BM24" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="BN24" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.0211105E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>2.590729371E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D25" t="e">
         <v>#N/A</v>
@@ -6025,198 +5944,198 @@
         <v>#N/A</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H25" t="n">
-        <v>59.0</v>
+        <v>114.0</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J25" t="s">
         <v>114</v>
       </c>
       <c r="K25" t="n">
-        <v>289.0</v>
+        <v>274.0</v>
       </c>
       <c r="L25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M25" t="n">
-        <v>8535.0</v>
+        <v>8196.0</v>
       </c>
       <c r="N25" t="n">
-        <v>90572.0</v>
+        <v>97650.0</v>
       </c>
       <c r="O25" t="n">
-        <v>3594.0</v>
+        <v>2773.0</v>
       </c>
       <c r="P25" t="n">
-        <v>7.7302905E8</v>
+        <v>8.00342375E8</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.5</v>
+        <v>98.0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.7</v>
+        <v>78.8</v>
       </c>
       <c r="S25" t="n">
-        <v>94.6</v>
+        <v>95.8</v>
       </c>
       <c r="T25" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="U25" t="e">
-        <v>#N/A</v>
+        <v>93.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>95.1</v>
       </c>
       <c r="V25" t="n">
-        <v>94.1</v>
+        <v>96.5</v>
       </c>
       <c r="W25" t="n">
-        <v>96.4</v>
+        <v>91.0</v>
       </c>
       <c r="X25" t="n">
-        <v>89.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.9</v>
+        <v>58.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>61.6</v>
+        <v>24.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.2</v>
+        <v>62.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>73.2</v>
+        <v>18.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.5</v>
+        <v>84.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>79.7</v>
+        <v>29019.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>28473.0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10436.0</v>
+        <v>6762.0</v>
+      </c>
+      <c r="AF25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH25" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.0220822E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ25" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL25" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO25" t="s">
         <v>182</v>
       </c>
-      <c r="AM25" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>196</v>
-      </c>
       <c r="AP25" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ25" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.0210409E7</v>
+        <v>2.0220311E7</v>
       </c>
       <c r="AS25" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="AT25" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU25" t="n">
-        <v>8464.0</v>
+        <v>8650.0</v>
       </c>
       <c r="AV25" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="AW25" t="n">
-        <v>35280.0</v>
+        <v>13418.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>2.9860992E8</v>
+        <v>1.160657E8</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.0971397380115092</v>
+        <v>0.0439310587211949</v>
       </c>
       <c r="AZ25" t="n">
-        <v>3.07402435E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA25" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="BB25" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="BC25" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="BE25" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="BF25" t="n">
-        <v>494.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG25" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH25" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="BI25" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ25" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK25" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL25" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="BM25" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="BN25" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.0220616E7</v>
+        <v>2.0220722E7</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
-        <v>2.901329438E9</v>
+        <v>3.069499968E9</v>
       </c>
       <c r="D26" t="e">
         <v>#N/A</v>
@@ -6225,88 +6144,88 @@
         <v>#N/A</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H26" t="n">
-        <v>73.0</v>
+        <v>119.0</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K26" t="n">
-        <v>271.0</v>
+        <v>275.0</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M26" t="n">
-        <v>5793.0</v>
+        <v>11261.0</v>
       </c>
       <c r="N26" t="n">
-        <v>121886.0</v>
+        <v>113321.0</v>
       </c>
       <c r="O26" t="n">
-        <v>2572.0</v>
+        <v>3604.0</v>
       </c>
       <c r="P26" t="n">
-        <v>7.06088154E8</v>
+        <v>1.276111489E9</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.6</v>
+        <v>98.0</v>
       </c>
       <c r="R26" t="n">
-        <v>82.4</v>
+        <v>72.5</v>
       </c>
       <c r="S26" t="n">
         <v>96.0</v>
       </c>
       <c r="T26" t="n">
-        <v>93.1</v>
-      </c>
-      <c r="U26" t="e">
-        <v>#N/A</v>
+        <v>94.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>95.4</v>
       </c>
       <c r="V26" t="n">
-        <v>95.3</v>
+        <v>95.9</v>
       </c>
       <c r="W26" t="n">
-        <v>92.9</v>
+        <v>89.4</v>
       </c>
       <c r="X26" t="n">
-        <v>84.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.6</v>
+        <v>54.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>49.0</v>
+        <v>27.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>27.1</v>
+        <v>64.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>57.0</v>
+        <v>15.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>17.7</v>
+        <v>70.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>73.7</v>
+        <v>29580.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>28625.0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>5646.0</v>
+        <v>9346.0</v>
+      </c>
+      <c r="AF26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG26" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH26" t="e">
         <v>#N/A</v>
@@ -6315,97 +6234,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ26" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK26" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP26" t="s">
         <v>183</v>
       </c>
-      <c r="AM26" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>197</v>
-      </c>
       <c r="AQ26" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AR26" t="n">
-        <v>2.0211028E7</v>
+        <v>2.0220304E7</v>
       </c>
       <c r="AS26" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="AT26" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU26" t="n">
-        <v>10000.0</v>
+        <v>13279.0</v>
       </c>
       <c r="AV26" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AW26" t="n">
-        <v>70000.0</v>
+        <v>45518.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>7.0E8</v>
+        <v>6.04433522E8</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.236902666847164</v>
+        <v>0.223433630117804</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2.9548E9</v>
+        <v>2.705203875E9</v>
       </c>
       <c r="BA26" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="BB26" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD26" t="s">
         <v>316</v>
       </c>
-      <c r="BC26" t="s">
-        <v>285</v>
-      </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>327</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>328</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM26" t="s">
         <v>339</v>
       </c>
-      <c r="BE26" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>454.0</v>
-      </c>
-      <c r="BG26" t="s">
+      <c r="BN26" t="s">
         <v>352</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>353</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>364</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27">
@@ -6425,157 +6344,157 @@
         <v>#N/A</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H27" t="n">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K27" t="n">
-        <v>272.0</v>
+        <v>254.0</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M27" t="n">
-        <v>9464.0</v>
+        <v>13147.0</v>
       </c>
       <c r="N27" t="n">
-        <v>148705.0</v>
+        <v>99921.0</v>
       </c>
       <c r="O27" t="n">
-        <v>3131.0</v>
+        <v>2630.0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.407347538E9</v>
+        <v>1.313660155E9</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.1</v>
+        <v>98.1</v>
       </c>
       <c r="R27" t="n">
-        <v>79.1</v>
+        <v>76.3</v>
       </c>
       <c r="S27" t="n">
         <v>96.1</v>
       </c>
       <c r="T27" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U27" t="e">
-        <v>#N/A</v>
+        <v>93.8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>95.5</v>
       </c>
       <c r="V27" t="n">
-        <v>95.4</v>
+        <v>96.3</v>
       </c>
       <c r="W27" t="n">
-        <v>95.8</v>
+        <v>91.1</v>
       </c>
       <c r="X27" t="n">
-        <v>90.3</v>
+        <v>8.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.8</v>
+        <v>60.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>57.7</v>
+        <v>22.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.8</v>
+        <v>64.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>48.3</v>
+        <v>16.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>31.9</v>
+        <v>81.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>70.9</v>
+        <v>29810.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>29575.0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>7757.0</v>
+        <v>5861.0</v>
+      </c>
+      <c r="AF27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG27" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH27" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.0220818E7</v>
+        <v>2.022081E7</v>
       </c>
       <c r="AJ27" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK27" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL27" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AM27" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN27" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO27" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP27" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ27" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.0211111E7</v>
+        <v>2.0220325E7</v>
       </c>
       <c r="AS27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT27" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU27" t="n">
-        <v>13939.0</v>
+        <v>12639.0</v>
       </c>
       <c r="AV27" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AW27" t="n">
-        <v>47723.0</v>
+        <v>25339.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.65210897E8</v>
+        <v>3.20259621E8</v>
       </c>
       <c r="AY27" t="n">
-        <v>0.251783420752951</v>
+        <v>0.121218794322342</v>
       </c>
       <c r="AZ27" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BB27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BC27" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD27" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="BE27" t="n">
         <v>3.27</v>
@@ -6584,28 +6503,28 @@
         <v>470.0</v>
       </c>
       <c r="BG27" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH27" t="n">
         <v>30.0</v>
       </c>
       <c r="BI27" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ27" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK27" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL27" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM27" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="BN27" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -6613,10 +6532,10 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
-        <v>3.022916505E9</v>
+        <v>3.069499968E9</v>
       </c>
       <c r="D28" t="e">
         <v>#N/A</v>
@@ -6625,88 +6544,88 @@
         <v>#N/A</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H28" t="n">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
       <c r="I28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K28" t="n">
-        <v>273.0</v>
+        <v>276.0</v>
       </c>
       <c r="L28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" t="n">
+        <v>18792.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>101242.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2548.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.9025476E9</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>97.9</v>
+      </c>
+      <c r="R28" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>30002.0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5372.0</v>
+      </c>
+      <c r="AF28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG28" t="s">
         <v>146</v>
-      </c>
-      <c r="M28" t="n">
-        <v>7508.0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>114259.0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>3071.0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>8.57858458E8</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="U28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V28" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="X28" t="n">
-        <v>88.9</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>28945.0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>7878.0</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>155</v>
       </c>
       <c r="AH28" t="e">
         <v>#N/A</v>
@@ -6715,97 +6634,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ28" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK28" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AM28" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN28" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO28" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP28" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ28" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="AR28" t="n">
-        <v>2.021121E7</v>
+        <v>2.0220407E7</v>
       </c>
       <c r="AS28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AT28" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU28" t="n">
-        <v>9511.0</v>
+        <v>17131.0</v>
       </c>
       <c r="AV28" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="AW28" t="n">
-        <v>39816.0</v>
+        <v>57147.0</v>
       </c>
       <c r="AX28" t="n">
-        <v>3.78689976E8</v>
+        <v>9.78985257E8</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.14333477998051</v>
+        <v>0.361889640203181</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2.641996423E9</v>
+        <v>2.705203875E9</v>
       </c>
       <c r="BA28" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="BB28" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="BC28" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD28" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="BE28" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="BF28" t="n">
-        <v>470.0</v>
+        <v>480.0</v>
       </c>
       <c r="BG28" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH28" t="n">
         <v>30.0</v>
       </c>
       <c r="BI28" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ28" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK28" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL28" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM28" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="BN28" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29">
@@ -6825,157 +6744,157 @@
         <v>#N/A</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H29" t="n">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="I29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K29" t="n">
-        <v>274.0</v>
+        <v>290.0</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M29" t="n">
-        <v>8196.0</v>
+        <v>13134.0</v>
       </c>
       <c r="N29" t="n">
-        <v>97650.0</v>
+        <v>101100.0</v>
       </c>
       <c r="O29" t="n">
-        <v>2773.0</v>
+        <v>3168.0</v>
       </c>
       <c r="P29" t="n">
-        <v>8.00342375E8</v>
+        <v>1.327847231E9</v>
       </c>
       <c r="Q29" t="n">
         <v>98.0</v>
       </c>
       <c r="R29" t="n">
-        <v>78.8</v>
+        <v>77.2</v>
       </c>
       <c r="S29" t="n">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="T29" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="U29" t="e">
-        <v>#N/A</v>
+        <v>93.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>95.5</v>
       </c>
       <c r="V29" t="n">
-        <v>95.1</v>
+        <v>96.0</v>
       </c>
       <c r="W29" t="n">
-        <v>96.5</v>
+        <v>90.1</v>
       </c>
       <c r="X29" t="n">
-        <v>91.0</v>
+        <v>8.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.8</v>
+        <v>58.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>58.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>24.7</v>
+        <v>62.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>62.7</v>
+        <v>17.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>18.9</v>
+        <v>82.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>84.3</v>
+        <v>30019.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>29019.0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>6762.0</v>
+        <v>7667.0</v>
+      </c>
+      <c r="AF29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG29" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH29" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.0220818E7</v>
+        <v>2.0220822E7</v>
       </c>
       <c r="AJ29" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK29" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AM29" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO29" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP29" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ29" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.0220311E7</v>
+        <v>2.0220428E7</v>
       </c>
       <c r="AS29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT29" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU29" t="n">
-        <v>8650.0</v>
+        <v>12248.0</v>
       </c>
       <c r="AV29" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AW29" t="n">
-        <v>13418.0</v>
+        <v>40941.0</v>
       </c>
       <c r="AX29" t="n">
-        <v>1.160657E8</v>
+        <v>5.01445368E8</v>
       </c>
       <c r="AY29" t="n">
-        <v>0.0439310587211949</v>
+        <v>0.189797898148025</v>
       </c>
       <c r="AZ29" t="n">
         <v>2.641996423E9</v>
       </c>
       <c r="BA29" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="BB29" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="BC29" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD29" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="BE29" t="n">
         <v>3.27</v>
@@ -6984,28 +6903,28 @@
         <v>470.0</v>
       </c>
       <c r="BG29" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH29" t="n">
         <v>30.0</v>
       </c>
       <c r="BI29" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ29" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK29" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL29" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM29" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="BN29" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30">
@@ -7013,10 +6932,10 @@
         <v>2.0220722E7</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="n">
-        <v>3.069499968E9</v>
+        <v>3.022916505E9</v>
       </c>
       <c r="D30" t="e">
         <v>#N/A</v>
@@ -7025,88 +6944,88 @@
         <v>#N/A</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H30" t="n">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="I30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0</v>
+        <v>278.0</v>
       </c>
       <c r="L30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M30" t="n">
-        <v>11261.0</v>
+        <v>13446.0</v>
       </c>
       <c r="N30" t="n">
-        <v>113321.0</v>
+        <v>99434.0</v>
       </c>
       <c r="O30" t="n">
-        <v>3604.0</v>
+        <v>2869.0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.276111489E9</v>
+        <v>1.336986912E9</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="R30" t="n">
-        <v>72.5</v>
+        <v>77.0</v>
       </c>
       <c r="S30" t="n">
         <v>96.0</v>
       </c>
       <c r="T30" t="n">
-        <v>94.4</v>
-      </c>
-      <c r="U30" t="e">
-        <v>#N/A</v>
+        <v>93.4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>95.5</v>
       </c>
       <c r="V30" t="n">
-        <v>95.4</v>
+        <v>96.0</v>
       </c>
       <c r="W30" t="n">
-        <v>95.9</v>
+        <v>89.8</v>
       </c>
       <c r="X30" t="n">
-        <v>89.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.8</v>
+        <v>59.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>54.1</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>27.5</v>
+        <v>61.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>64.3</v>
+        <v>18.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>15.7</v>
+        <v>84.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>70.8</v>
+        <v>29708.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>29580.0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9346.0</v>
+        <v>7021.0</v>
+      </c>
+      <c r="AF30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG30" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH30" t="e">
         <v>#N/A</v>
@@ -7115,108 +7034,108 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ30" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK30" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL30" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AM30" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN30" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO30" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP30" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ30" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.0220304E7</v>
+        <v>2.0220505E7</v>
       </c>
       <c r="AS30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT30" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU30" t="n">
-        <v>13279.0</v>
+        <v>13151.0</v>
       </c>
       <c r="AV30" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="AW30" t="n">
-        <v>45518.0</v>
+        <v>50211.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>6.04433522E8</v>
+        <v>6.60324861E8</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.223433630117804</v>
+        <v>0.249934048074977</v>
       </c>
       <c r="AZ30" t="n">
-        <v>2.705203875E9</v>
+        <v>2.641996423E9</v>
       </c>
       <c r="BA30" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="BB30" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="BC30" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD30" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="BE30" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="BF30" t="n">
-        <v>480.0</v>
+        <v>470.0</v>
       </c>
       <c r="BG30" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH30" t="n">
         <v>30.0</v>
       </c>
       <c r="BI30" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ30" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="BK30" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="BL30" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="BM30" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="BN30" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220715E7</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>3.022916505E9</v>
+        <v>2.686871619E9</v>
       </c>
       <c r="D31" t="e">
         <v>#N/A</v>
@@ -7225,198 +7144,198 @@
         <v>#N/A</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0</v>
+        <v>99.0</v>
       </c>
       <c r="I31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K31" t="n">
-        <v>254.0</v>
+        <v>279.0</v>
       </c>
       <c r="L31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M31" t="n">
-        <v>13147.0</v>
+        <v>4270.0</v>
       </c>
       <c r="N31" t="n">
-        <v>99921.0</v>
+        <v>112157.0</v>
       </c>
       <c r="O31" t="n">
-        <v>2630.0</v>
+        <v>3192.0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.313660155E9</v>
+        <v>4.78908775E8</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="R31" t="n">
-        <v>76.3</v>
+        <v>75.6</v>
       </c>
       <c r="S31" t="n">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="T31" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="U31" t="e">
-        <v>#N/A</v>
+        <v>94.7</v>
+      </c>
+      <c r="U31" t="n">
+        <v>95.7</v>
       </c>
       <c r="V31" t="n">
         <v>95.5</v>
       </c>
       <c r="W31" t="n">
-        <v>96.3</v>
+        <v>88.2</v>
       </c>
       <c r="X31" t="n">
-        <v>91.1</v>
+        <v>8.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.4</v>
+        <v>57.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>60.7</v>
+        <v>22.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>22.0</v>
+        <v>63.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>64.3</v>
+        <v>13.9</v>
       </c>
       <c r="AC31" t="n">
-        <v>16.6</v>
+        <v>72.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>81.9</v>
+        <v>28245.0</v>
       </c>
       <c r="AE31" t="n">
-        <v>29810.0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>5861.0</v>
+        <v>8170.0</v>
+      </c>
+      <c r="AF31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG31" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH31" t="e">
         <v>#N/A</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.022081E7</v>
+        <v>2.0220818E7</v>
       </c>
       <c r="AJ31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK31" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL31" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AM31" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN31" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO31" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP31" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ31" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AR31" t="n">
-        <v>2.0220325E7</v>
+        <v>2.0220517E7</v>
       </c>
       <c r="AS31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT31" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU31" t="n">
-        <v>12639.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AV31" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="AW31" t="n">
-        <v>25339.0</v>
+        <v>60000.0</v>
       </c>
       <c r="AX31" t="n">
-        <v>3.20259621E8</v>
+        <v>6.0E8</v>
       </c>
       <c r="AY31" t="n">
-        <v>0.121218794322342</v>
+        <v>0.2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>2.641996423E9</v>
+        <v>3.0E9</v>
       </c>
       <c r="BA31" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="BB31" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="BC31" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="BD31" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="BE31" t="n">
-        <v>3.27</v>
+        <v>3.02</v>
       </c>
       <c r="BF31" t="n">
-        <v>470.0</v>
+        <v>520.0</v>
       </c>
       <c r="BG31" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH31" t="n">
         <v>30.0</v>
       </c>
       <c r="BI31" t="s">
+        <v>327</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>328</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>340</v>
+      </c>
+      <c r="BN31" t="s">
         <v>353</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>365</v>
-      </c>
-      <c r="BN31" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.0220722E7</v>
+        <v>2.0220718E7</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>3.069499968E9</v>
+        <v>3.002834824E9</v>
       </c>
       <c r="D32" t="e">
         <v>#N/A</v>
@@ -7425,88 +7344,88 @@
         <v>#N/A</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H32" t="n">
-        <v>121.0</v>
+        <v>107.0</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K32" t="n">
-        <v>276.0</v>
+        <v>280.0</v>
       </c>
       <c r="L32" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M32" t="n">
-        <v>18792.0</v>
+        <v>9000.0</v>
       </c>
       <c r="N32" t="n">
-        <v>101242.0</v>
+        <v>282445.0</v>
       </c>
       <c r="O32" t="n">
-        <v>2548.0</v>
+        <v>2156.0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9025476E9</v>
+        <v>2.542002423E9</v>
       </c>
       <c r="Q32" t="n">
-        <v>97.9</v>
+        <v>95.8</v>
       </c>
       <c r="R32" t="n">
-        <v>81.7</v>
+        <v>87.9</v>
       </c>
       <c r="S32" t="n">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="T32" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="U32" t="e">
-        <v>#N/A</v>
+        <v>93.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>95.4</v>
       </c>
       <c r="V32" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="W32" t="n">
-        <v>96.6</v>
+        <v>90.2</v>
       </c>
       <c r="X32" t="n">
-        <v>91.2</v>
+        <v>9.1</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.1</v>
+        <v>61.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>54.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA32" t="n">
-        <v>28.5</v>
+        <v>46.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>60.3</v>
+        <v>33.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>21.3</v>
+        <v>83.2</v>
       </c>
       <c r="AD32" t="n">
-        <v>84.4</v>
+        <v>29948.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>30002.0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>5372.0</v>
+        <v>3886.0</v>
+      </c>
+      <c r="AF32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG32" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AH32" t="e">
         <v>#N/A</v>
@@ -7515,897 +7434,97 @@
         <v>2.0220818E7</v>
       </c>
       <c r="AJ32" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AK32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AL32" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AM32" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AO32" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AP32" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AQ32" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AR32" t="n">
-        <v>2.0220407E7</v>
+        <v>2.0220622E7</v>
       </c>
       <c r="AS32" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="AT32" t="e">
         <v>#N/A</v>
       </c>
       <c r="AU32" t="n">
-        <v>17131.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AV32" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="AW32" t="n">
-        <v>57147.0</v>
+        <v>40000.0</v>
       </c>
       <c r="AX32" t="n">
-        <v>9.78985257E8</v>
+        <v>4.0E8</v>
       </c>
       <c r="AY32" t="n">
-        <v>0.361889640203181</v>
+        <v>0.1367</v>
       </c>
       <c r="AZ32" t="n">
-        <v>2.705203875E9</v>
+        <v>2.925739924E9</v>
       </c>
       <c r="BA32" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="BB32" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="BC32" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="BD32" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="BE32" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="BF32" t="n">
-        <v>480.0</v>
+        <v>450.0</v>
       </c>
       <c r="BG32" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="BH32" t="n">
         <v>30.0</v>
       </c>
       <c r="BI32" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="BJ32" t="s">
+        <v>328</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN32" t="s">
         <v>354</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>365</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2.0220722E7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.022916505E9</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J33" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" t="n">
-        <v>290.0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>151</v>
-      </c>
-      <c r="M33" t="n">
-        <v>13134.0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>101100.0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>3168.0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.327847231E9</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>96.1</v>
-      </c>
-      <c r="T33" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V33" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W33" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>90.1</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>30019.0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>7667.0</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>2.0220822E7</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>2.0220428E7</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>12248.0</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>40941.0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>5.01445368E8</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0.189797898148025</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>2.641996423E9</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>322</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>327</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>345</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>470.0</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>350</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>353</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>365</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2.0220722E7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.022916505E9</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" t="n">
-        <v>278.0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>152</v>
-      </c>
-      <c r="M34" t="n">
-        <v>13446.0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>99434.0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2869.0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.336986912E9</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="R34" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="U34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V34" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>29708.0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>7021.0</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>2.0220505E7</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>13151.0</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>50211.0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>6.60324861E8</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>0.249934048074977</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>2.641996423E9</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>292</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>323</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>327</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>346</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>470.0</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>350</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>353</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>365</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2.0220715E7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.686871619E9</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>112</v>
-      </c>
-      <c r="J35" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" t="n">
-        <v>279.0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>153</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4270.0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>112157.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>3192.0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4.78908775E8</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>97.9</v>
-      </c>
-      <c r="R35" t="n">
-        <v>75.6</v>
-      </c>
-      <c r="S35" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="T35" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="U35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V35" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="W35" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>28245.0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>8170.0</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>231</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>2.0220517E7</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>6.0E8</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>3.0E9</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>293</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>324</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>293</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>347</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>520.0</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>350</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>353</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>366</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2.0220718E7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.002834824E9</v>
-      </c>
-      <c r="D36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>112</v>
-      </c>
-      <c r="J36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" t="n">
-        <v>280.0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" t="n">
-        <v>9000.0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>282445.0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2156.0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.542002423E9</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="R36" t="n">
-        <v>87.9</v>
-      </c>
-      <c r="S36" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="T36" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="U36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V36" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="W36" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="X36" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>29948.0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>3886.0</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>2.0220818E7</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>232</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>2.0220622E7</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>242</v>
-      </c>
-      <c r="AT36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>257</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>4.0E8</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0.1367</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>2.925739924E9</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>325</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>327</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>348</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>350</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>353</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/2022-08-18 Prepare for UTSA/STARR.SGLT2.agg.xlsx
+++ b/2022-08-18 Prepare for UTSA/STARR.SGLT2.agg.xlsx
@@ -74,6 +74,9 @@
     <t>Q30 Bases in RNA Read</t>
   </si>
   <si>
+    <t>Q30 Bases in Sample Index</t>
+  </si>
+  <si>
     <t>Q30 Bases in UMI</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>Median UMI Counts per Cell</t>
   </si>
   <si>
-    <t>Q30 Bases in Sample Index</t>
-  </si>
-  <si>
     <t>Agg</t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>76638_V5_combine_force9455</t>
   </si>
   <si>
-    <t>76643_V11_combine_force24013</t>
+    <t>76643_V11_combine_force24368</t>
   </si>
   <si>
     <t>76643_V5_combine</t>
@@ -389,10 +389,10 @@
     <t>76656_V11_combine_force13551</t>
   </si>
   <si>
-    <t>76658_V11_combine_force23181</t>
-  </si>
-  <si>
-    <t>76660_V5_combine_force17531</t>
+    <t>76658_V11_combine_force23868</t>
+  </si>
+  <si>
+    <t>76660_V5_combine_force17696</t>
   </si>
   <si>
     <t>76661_V5_combine_force14743</t>
@@ -473,7 +473,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/molecule_info.h5</t>
@@ -491,10 +491,10 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/molecule_info.h5</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23181/outs/molecule_info.h5</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/molecule_info.h5</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/molecule_info.h5</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/molecule_info.h5</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/molecule_info.h5</t>
@@ -578,7 +578,7 @@
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76638_V5_combine_force9455/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24013/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76643_V11_combine_force24368/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_3/20211105_L3_L4_Counts/76643_V5_combine/outs/metrics_summary.csv</t>
@@ -596,10 +596,10 @@
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76656_V11_combine_force13551/outs/metrics_summary.csv</t>
   </si>
   <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23181/outs/metrics_summary.csv</t>
-  </si>
-  <si>
-    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17531/outs/metrics_summary.csv</t>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76658_V11_combine_force23868/outs/metrics_summary.csv</t>
+  </si>
+  <si>
+    <t>/media/jianie/SequencingFiles_6/20220801_Counts/76660_V5_combine_force17696/outs/metrics_summary.csv</t>
   </si>
   <si>
     <t>/media/jianie/SequencingFiles_6/20220801_Counts/76661_V5_combine_force14743/outs/metrics_summary.csv</t>
@@ -1388,41 +1388,41 @@
       <c r="T2" t="n">
         <v>93.1</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="n">
         <v>95.1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>97.1</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>91.4</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>8.0</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>60.1</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>23.3</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>69.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>12.0</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>81.9</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>28312.0</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>4261.0</v>
-      </c>
-      <c r="AF2" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG2" t="s">
         <v>146</v>
@@ -1588,41 +1588,41 @@
       <c r="T3" t="n">
         <v>93.2</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V3" t="n">
         <v>94.6</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>94.8</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>87.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>57.9</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>20.8</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>68.4</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>71.8</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>28143.0</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>5188.0</v>
-      </c>
-      <c r="AF3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG3" t="s">
         <v>146</v>
@@ -1788,41 +1788,41 @@
       <c r="T4" t="n">
         <v>92.4</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="n">
         <v>94.3</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>94.7</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>87.7</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>8.3</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>60.2</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>19.2</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>68.6</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>8.9</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>82.8</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>29313.0</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>12182.0</v>
-      </c>
-      <c r="AF4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG4" t="s">
         <v>146</v>
@@ -1988,41 +1988,41 @@
       <c r="T5" t="n">
         <v>93.3</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="n">
         <v>94.9</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>96.0</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>89.9</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>60.3</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>21.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>68.2</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>11.7</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>89.6</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>29020.0</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>7138.0</v>
-      </c>
-      <c r="AF5" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG5" t="s">
         <v>146</v>
@@ -2159,19 +2159,19 @@
         <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>293.0</v>
+        <v>299.0</v>
       </c>
       <c r="L6" t="s">
         <v>119</v>
       </c>
       <c r="M6" t="n">
-        <v>24013.0</v>
+        <v>24368.0</v>
       </c>
       <c r="N6" t="n">
-        <v>88270.0</v>
+        <v>86984.0</v>
       </c>
       <c r="O6" t="n">
-        <v>2702.0</v>
+        <v>2656.0</v>
       </c>
       <c r="P6" t="n">
         <v>2.11963207E9</v>
@@ -2188,41 +2188,41 @@
       <c r="T6" t="n">
         <v>94.1</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="n">
         <v>95.6</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>94.7</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>89.1</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>53.4</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>27.2</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>58.2</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>20.9</v>
       </c>
-      <c r="AC6" t="n">
-        <v>87.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>30216.0</v>
+        <v>87.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>5774.0</v>
-      </c>
-      <c r="AF6" t="e">
-        <v>#N/A</v>
+        <v>30217.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5594.0</v>
       </c>
       <c r="AG6" t="s">
         <v>146</v>
@@ -2231,7 +2231,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ6" t="s">
         <v>147</v>
@@ -2388,41 +2388,41 @@
       <c r="T7" t="n">
         <v>91.4</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="n">
         <v>94.7</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>92.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>84.8</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>56.9</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>66.8</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>74.0</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>27459.0</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>3098.0</v>
-      </c>
-      <c r="AF7" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG7" t="s">
         <v>146</v>
@@ -2588,41 +2588,41 @@
       <c r="T8" t="n">
         <v>93.6</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="n">
         <v>95.8</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>95.5</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>87.2</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>56.1</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>23.2</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>55.2</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>22.7</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>75.0</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>30186.0</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>6401.0</v>
-      </c>
-      <c r="AF8" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG8" t="s">
         <v>146</v>
@@ -2788,41 +2788,41 @@
       <c r="T9" t="n">
         <v>93.1</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V9" t="n">
         <v>95.6</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>95.8</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>89.5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>54.8</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>27.1</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>63.7</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>16.6</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>85.8</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>30263.0</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>4527.0</v>
-      </c>
-      <c r="AF9" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG9" t="s">
         <v>146</v>
@@ -2988,41 +2988,41 @@
       <c r="T10" t="n">
         <v>92.9</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="n">
         <v>94.3</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>95.8</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>90.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>60.8</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>22.3</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>53.7</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>27.9</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>82.4</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>30088.0</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>6185.0</v>
-      </c>
-      <c r="AF10" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG10" t="s">
         <v>146</v>
@@ -3188,41 +3188,41 @@
       <c r="T11" t="n">
         <v>93.6</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="n">
         <v>95.6</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>96.2</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>90.8</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>9.0</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>60.9</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>20.9</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>55.6</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>24.8</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>73.4</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>30143.0</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>6361.0</v>
-      </c>
-      <c r="AF11" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG11" t="s">
         <v>146</v>
@@ -3359,19 +3359,19 @@
         <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>288.0</v>
+        <v>301.0</v>
       </c>
       <c r="L12" t="s">
         <v>125</v>
       </c>
       <c r="M12" t="n">
-        <v>23181.0</v>
+        <v>23868.0</v>
       </c>
       <c r="N12" t="n">
-        <v>93916.0</v>
+        <v>91213.0</v>
       </c>
       <c r="O12" t="n">
-        <v>2508.0</v>
+        <v>2461.0</v>
       </c>
       <c r="P12" t="n">
         <v>2.177064134E9</v>
@@ -3388,41 +3388,41 @@
       <c r="T12" t="n">
         <v>94.5</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="n">
         <v>95.6</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>96.8</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>92.0</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>57.6</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>25.9</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>60.3</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>21.6</v>
       </c>
-      <c r="AC12" t="n">
-        <v>82.1</v>
-      </c>
       <c r="AD12" t="n">
-        <v>30355.0</v>
+        <v>82.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>4873.0</v>
-      </c>
-      <c r="AF12" t="e">
-        <v>#N/A</v>
+        <v>30361.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4728.0</v>
       </c>
       <c r="AG12" t="s">
         <v>146</v>
@@ -3431,7 +3431,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ12" t="s">
         <v>147</v>
@@ -3559,19 +3559,19 @@
         <v>110</v>
       </c>
       <c r="K13" t="n">
-        <v>297.0</v>
+        <v>300.0</v>
       </c>
       <c r="L13" t="s">
         <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>17531.0</v>
+        <v>17696.0</v>
       </c>
       <c r="N13" t="n">
-        <v>93904.0</v>
+        <v>93029.0</v>
       </c>
       <c r="O13" t="n">
-        <v>2524.0</v>
+        <v>2503.0</v>
       </c>
       <c r="P13" t="n">
         <v>1.646232433E9</v>
@@ -3588,41 +3588,41 @@
       <c r="T13" t="n">
         <v>94.3</v>
       </c>
-      <c r="U13" t="n">
-        <v>95.8</v>
+      <c r="U13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="V13" t="n">
         <v>95.8</v>
       </c>
       <c r="W13" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="X13" t="n">
         <v>89.8</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>58.9</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>22.6</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>57.6</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>22.3</v>
       </c>
-      <c r="AC13" t="n">
-        <v>83.0</v>
-      </c>
       <c r="AD13" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="AE13" t="n">
         <v>29995.0</v>
       </c>
-      <c r="AE13" t="n">
-        <v>5013.0</v>
-      </c>
-      <c r="AF13" t="e">
-        <v>#N/A</v>
+      <c r="AF13" t="n">
+        <v>4942.0</v>
       </c>
       <c r="AG13" t="s">
         <v>146</v>
@@ -3631,7 +3631,7 @@
         <v>#N/A</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.022083E7</v>
+        <v>2.0220912E7</v>
       </c>
       <c r="AJ13" t="s">
         <v>147</v>
@@ -3788,41 +3788,41 @@
       <c r="T14" t="n">
         <v>94.2</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="n">
         <v>96.0</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>96.6</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>90.4</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>8.0</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>59.0</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>23.4</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>64.0</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>16.7</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>85.3</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>29313.0</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>4230.0</v>
-      </c>
-      <c r="AF14" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG14" t="s">
         <v>146</v>
@@ -3988,41 +3988,41 @@
       <c r="T15" t="n">
         <v>94.5</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="n">
         <v>96.3</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>94.5</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>83.6</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>57.4</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>17.7</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>68.1</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>74.2</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>28572.0</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>2974.0</v>
-      </c>
-      <c r="AF15" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG15" t="s">
         <v>146</v>
@@ -4188,41 +4188,41 @@
       <c r="T16" t="n">
         <v>94.7</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="n">
         <v>96.6</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>96.7</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>91.4</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>62.7</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>20.6</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>76.1</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>4.9</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>85.7</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>27161.0</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>6703.0</v>
-      </c>
-      <c r="AF16" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG16" t="s">
         <v>146</v>
@@ -4388,41 +4388,41 @@
       <c r="T17" t="n">
         <v>93.6</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="n">
         <v>94.6</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>96.6</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>88.7</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>9.8</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>62.3</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>16.6</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>71.7</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>5.1</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>69.2</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>28155.0</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>5863.0</v>
-      </c>
-      <c r="AF17" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG17" t="s">
         <v>146</v>
@@ -4588,41 +4588,41 @@
       <c r="T18" t="n">
         <v>93.7</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="n">
         <v>95.3</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>96.7</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>90.4</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>63.5</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>18.3</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>75.4</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>4.2</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>64.4</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>26965.0</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>3932.0</v>
-      </c>
-      <c r="AF18" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG18" t="s">
         <v>146</v>
@@ -4788,41 +4788,41 @@
       <c r="T19" t="n">
         <v>93.9</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="n">
         <v>95.1</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>94.4</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>82.2</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>53.9</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>21.1</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>68.1</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>4.9</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>79.2</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>29138.0</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>3038.0</v>
-      </c>
-      <c r="AF19" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG19" t="s">
         <v>146</v>
@@ -4988,41 +4988,41 @@
       <c r="T20" t="n">
         <v>93.9</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="n">
         <v>95.1</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>92.3</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>80.9</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>55.7</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>17.4</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>67.4</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>3.6</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>79.5</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>27946.0</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>5029.0</v>
-      </c>
-      <c r="AF20" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG20" t="s">
         <v>146</v>
@@ -5188,41 +5188,41 @@
       <c r="T21" t="n">
         <v>93.4</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="n">
         <v>94.1</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>96.4</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>89.7</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>61.6</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>20.2</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>73.2</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>6.5</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>79.7</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>28473.0</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>10436.0</v>
-      </c>
-      <c r="AF21" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG21" t="s">
         <v>146</v>
@@ -5388,41 +5388,41 @@
       <c r="T22" t="n">
         <v>93.1</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="n">
         <v>95.3</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>92.9</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>84.7</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>49.0</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>27.1</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>57.0</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>17.7</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>73.7</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>28625.0</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>5646.0</v>
-      </c>
-      <c r="AF22" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG22" t="s">
         <v>146</v>
@@ -5588,41 +5588,41 @@
       <c r="T23" t="n">
         <v>93.3</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="n">
         <v>95.4</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>95.8</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>90.3</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>8.8</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>57.7</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>23.8</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>48.3</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>31.9</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>70.9</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>29575.0</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>7757.0</v>
-      </c>
-      <c r="AF23" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG23" t="s">
         <v>146</v>
@@ -5788,41 +5788,41 @@
       <c r="T24" t="n">
         <v>94.0</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="n">
         <v>95.5</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>95.8</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>88.9</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>59.1</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>20.7</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>63.9</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>14.1</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>70.8</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>28945.0</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>7878.0</v>
-      </c>
-      <c r="AF24" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG24" t="s">
         <v>146</v>
@@ -5988,41 +5988,41 @@
       <c r="T25" t="n">
         <v>93.5</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="n">
         <v>95.1</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>96.5</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>91.0</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>58.5</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>24.7</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>62.7</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>18.9</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>84.3</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>29019.0</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
         <v>6762.0</v>
-      </c>
-      <c r="AF25" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG25" t="s">
         <v>146</v>
@@ -6188,41 +6188,41 @@
       <c r="T26" t="n">
         <v>94.4</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="n">
         <v>95.4</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>95.9</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>89.4</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>54.1</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>27.5</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>64.3</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>15.7</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>70.8</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>29580.0</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
         <v>9346.0</v>
-      </c>
-      <c r="AF26" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG26" t="s">
         <v>146</v>
@@ -6388,41 +6388,41 @@
       <c r="T27" t="n">
         <v>93.8</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="n">
         <v>95.5</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>96.3</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>91.1</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>60.7</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>22.0</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB27" t="n">
         <v>64.3</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>16.6</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>81.9</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>29810.0</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
         <v>5861.0</v>
-      </c>
-      <c r="AF27" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG27" t="s">
         <v>146</v>
@@ -6588,41 +6588,41 @@
       <c r="T28" t="n">
         <v>94.2</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="n">
         <v>95.5</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>96.6</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>91.2</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>8.1</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
         <v>54.7</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>28.5</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>60.3</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>21.3</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>84.4</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
         <v>30002.0</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
         <v>5372.0</v>
-      </c>
-      <c r="AF28" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG28" t="s">
         <v>146</v>
@@ -6788,41 +6788,41 @@
       <c r="T29" t="n">
         <v>93.3</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="n">
         <v>95.5</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>96.0</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>90.1</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>8.7</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>58.8</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>22.6</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AB29" t="n">
         <v>62.2</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AC29" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>82.2</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="n">
         <v>30019.0</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AF29" t="n">
         <v>7667.0</v>
-      </c>
-      <c r="AF29" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG29" t="s">
         <v>146</v>
@@ -6988,41 +6988,41 @@
       <c r="T30" t="n">
         <v>93.4</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V30" t="n">
         <v>95.5</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>96.0</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>89.8</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>59.9</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30" t="n">
         <v>21.6</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AB30" t="n">
         <v>61.6</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
         <v>18.2</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>84.5</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="n">
         <v>29708.0</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AF30" t="n">
         <v>7021.0</v>
-      </c>
-      <c r="AF30" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG30" t="s">
         <v>146</v>
@@ -7188,41 +7188,41 @@
       <c r="T31" t="n">
         <v>94.7</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V31" t="n">
         <v>95.7</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>95.5</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>88.2</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>8.8</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
         <v>57.3</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>22.1</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AB31" t="n">
         <v>63.8</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>13.9</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>72.2</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="n">
         <v>28245.0</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AF31" t="n">
         <v>8170.0</v>
-      </c>
-      <c r="AF31" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG31" t="s">
         <v>146</v>
@@ -7388,41 +7388,41 @@
       <c r="T32" t="n">
         <v>93.0</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="n">
         <v>95.4</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>95.6</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>90.2</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Z32" t="n">
         <v>61.5</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AB32" t="n">
         <v>46.3</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>33.5</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>83.2</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
         <v>29948.0</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AF32" t="n">
         <v>3886.0</v>
-      </c>
-      <c r="AF32" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AG32" t="s">
         <v>146</v>
